--- a/testing/tests_with_headers.xlsx
+++ b/testing/tests_with_headers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7232b599e1879579/Desktop/Github/Testing_with_AutoIT/testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernst\OneDrive\Desktop\Github\Testing_with_Pyautogui\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{EA7CF504-F1E0-4284-A749-08C4A9BFCF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE81171-99BF-47B5-B80D-808E534B14F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C20BE40-3FF8-4DAD-8B6D-9655AD8111D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10284" yWindow="7800" windowWidth="30252" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="5510" windowWidth="30720" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>EP1</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>message</t>
+  </si>
+  <si>
+    <t>EP5</t>
   </si>
 </sst>
 </file>
@@ -405,20 +408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -447,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -477,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -507,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10</v>
       </c>
@@ -518,26 +521,26 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="0">A4*15</f>
+        <f t="shared" ref="D4:D6" si="0">A4*15</f>
         <v>150</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E5" si="1">B4*12</f>
+        <f t="shared" ref="E4:E6" si="1">B4*12</f>
         <v>240</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F5" si="2">C4*9</f>
+        <f t="shared" ref="F4:F6" si="2">C4*9</f>
         <v>270</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G5" si="3">SUM(D4:F4)</f>
+        <f t="shared" ref="G4:G6" si="3">SUM(D4:F4)</f>
         <v>660</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -565,6 +568,36 @@
       </c>
       <c r="I5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
